--- a/output/new_1.xlsx
+++ b/output/new_1.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -753,320 +753,7 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>$2.7B</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Department of Agriculture</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>$2.8B</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Department of Commerce</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>$36B</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Department of Defense</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>$7.0B</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Department of Health and Human Services</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>$1.5B</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Department of the Interior</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>$3.1B</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Department of Justice</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>$819M</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Department of Labor</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>$2.6B</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Department of State</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>$5.4B</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Department of the Treasury</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>$2.0B</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Social Security Administration</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>$1.0B</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Department of Education</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>$3.1B</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Department of Energy</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>$385M</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Environmental Protection Agency</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>$3.5B</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Department of Transportation</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>$765M</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>General Services Administration</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>$7.4B</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Department of Homeland Security</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>$447M</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Department of Housing and Urban Development</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>$2.2B</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>National Aeronautics and Space Administration</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>$125M</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Office of Personnel Management</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>$129M</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Small Business Administration</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>$9.1B</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Department of Veterans Affairs</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>$256M</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>U.S. Agency for International Development</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>$275M</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>U.S. Army Corps of Engineers</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>$99.9M</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>National Archives and Records Administration</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>$136M</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>National Science Foundation</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>$141M</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Nuclear Regulatory Commission</t>
-        </is>
-      </c>
-    </row>
+    <row r="27"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
